--- a/Resultados/MDG-a/mdg_a_2.xlsx
+++ b/Resultados/MDG-a/mdg_a_2.xlsx
@@ -155,6 +155,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -240,16 +241,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AN13"/>
+  <dimension ref="A1:AN15"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AO2" activeCellId="0" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -374,734 +372,978 @@
       </c>
     </row>
     <row r="2" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>7627.64999999998</v>
-      </c>
-      <c r="C2" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="D2" s="1" t="n">
-        <v>7576.42999999999</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="F2" s="1" t="n">
-        <v>7637.22999999999</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="H2" s="1" t="n">
-        <v>7627.64999999998</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>7545.40999999999</v>
-      </c>
-      <c r="K2" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="L2" s="1" t="n">
-        <v>7608.94000000001</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>7631.45</v>
-      </c>
-      <c r="O2" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="P2" s="1" t="n">
-        <v>7627.64999999998</v>
-      </c>
-      <c r="Q2" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="R2" s="1" t="n">
-        <v>7650.76999999999</v>
-      </c>
-      <c r="S2" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="T2" s="1" t="n">
-        <v>7725.97999999998</v>
-      </c>
-      <c r="U2" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="V2" s="1" t="n">
-        <v>7641.58999999999</v>
-      </c>
-      <c r="W2" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="X2" s="1" t="n">
-        <v>7605.2</v>
-      </c>
-      <c r="Y2" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="Z2" s="1" t="n">
-        <v>7587.49</v>
-      </c>
-      <c r="AA2" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="AB2" s="1" t="n">
-        <v>7627.64999999998</v>
-      </c>
-      <c r="AC2" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="AD2" s="1" t="n">
-        <v>7636.31999999999</v>
-      </c>
-      <c r="AE2" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="AF2" s="1" t="n">
-        <v>7567.44999999999</v>
-      </c>
-      <c r="AG2" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="AH2" s="1" t="n">
-        <v>7665.28999999996</v>
-      </c>
-      <c r="AI2" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="AJ2" s="1" t="n">
-        <v>7620.93</v>
-      </c>
-      <c r="AK2" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="AL2" s="1" t="n">
-        <v>7695.11000000001</v>
-      </c>
-      <c r="AM2" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="AN2" s="1" t="n">
-        <v>7686.09000000001</v>
+      <c r="A2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="0" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>7637.22999999999</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>7576.42999999999</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>7627.64999999998</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>7627.64999999998</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="J3" s="1" t="n">
+        <v>7545.40999999999</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="L3" s="1" t="n">
+        <v>7608.94000000001</v>
+      </c>
+      <c r="M3" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="N3" s="1" t="n">
+        <v>7631.45</v>
+      </c>
+      <c r="O3" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="P3" s="1" t="n">
+        <v>7627.64999999998</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="R3" s="1" t="n">
+        <v>7650.76999999999</v>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="T3" s="1" t="n">
+        <v>7725.97999999998</v>
+      </c>
+      <c r="U3" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="V3" s="1" t="n">
+        <v>7641.58999999999</v>
+      </c>
+      <c r="W3" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="X3" s="1" t="n">
+        <v>7605.2</v>
+      </c>
+      <c r="Y3" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>7587.49</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>7627.64999999998</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>7636.31999999999</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>7567.44999999999</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>7665.28999999996</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>7620.93</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>7695.11000000001</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>7686.09000000001</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>1427</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>7687.29999999998</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>7584.97999999999</v>
+      </c>
+      <c r="E4" s="1" t="n">
         <v>2448</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="F4" s="1" t="n">
         <v>7653.32000000001</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>7584.97999999999</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <v>1427</v>
-      </c>
-      <c r="F3" s="1" t="n">
-        <v>7687.29999999998</v>
-      </c>
-      <c r="G3" s="1" t="n">
+      <c r="G4" s="1" t="n">
         <v>2057</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>7700.00000000001</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>631</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>7551.69</v>
       </c>
-      <c r="K3" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>790</v>
       </c>
-      <c r="L3" s="1" t="n">
+      <c r="L4" s="1" t="n">
         <v>7682.27</v>
       </c>
-      <c r="M3" s="1" t="n">
+      <c r="M4" s="1" t="n">
         <v>1746</v>
       </c>
-      <c r="N3" s="1" t="n">
+      <c r="N4" s="1" t="n">
         <v>7698.28999999997</v>
       </c>
-      <c r="O3" s="1" t="n">
+      <c r="O4" s="1" t="n">
         <v>787</v>
       </c>
-      <c r="P3" s="1" t="n">
+      <c r="P4" s="1" t="n">
         <v>7704.06</v>
       </c>
-      <c r="Q3" s="1" t="n">
+      <c r="Q4" s="1" t="n">
         <v>1617</v>
       </c>
-      <c r="R3" s="1" t="n">
+      <c r="R4" s="1" t="n">
         <v>7680.85999999998</v>
       </c>
-      <c r="S3" s="1" t="n">
+      <c r="S4" s="1" t="n">
         <v>78357</v>
       </c>
-      <c r="T3" s="1" t="n">
+      <c r="T4" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="U3" s="1" t="n">
+      <c r="U4" s="1" t="n">
         <v>703</v>
       </c>
-      <c r="V3" s="1" t="n">
+      <c r="V4" s="1" t="n">
         <v>7676.7</v>
       </c>
-      <c r="W3" s="1" t="n">
+      <c r="W4" s="1" t="n">
         <v>859</v>
       </c>
-      <c r="X3" s="1" t="n">
+      <c r="X4" s="1" t="n">
         <v>7620.93</v>
       </c>
-      <c r="Y3" s="1" t="n">
+      <c r="Y4" s="1" t="n">
         <v>513</v>
       </c>
-      <c r="Z3" s="1" t="n">
+      <c r="Z4" s="1" t="n">
         <v>7700.61</v>
       </c>
-      <c r="AA3" s="1" t="n">
+      <c r="AA4" s="1" t="n">
         <v>765</v>
       </c>
-      <c r="AB3" s="1" t="n">
+      <c r="AB4" s="1" t="n">
         <v>7697.73</v>
       </c>
-      <c r="AC3" s="1" t="n">
+      <c r="AC4" s="1" t="n">
         <v>1076</v>
       </c>
-      <c r="AD3" s="1" t="n">
+      <c r="AD4" s="1" t="n">
         <v>7693.97999999999</v>
       </c>
-      <c r="AE3" s="1" t="n">
+      <c r="AE4" s="1" t="n">
         <v>587</v>
       </c>
-      <c r="AF3" s="1" t="n">
+      <c r="AF4" s="1" t="n">
         <v>7606.69999999999</v>
       </c>
-      <c r="AG3" s="1" t="n">
+      <c r="AG4" s="1" t="n">
         <v>1730</v>
       </c>
-      <c r="AH3" s="1" t="n">
+      <c r="AH4" s="1" t="n">
         <v>7685.32</v>
       </c>
-      <c r="AI3" s="1" t="n">
+      <c r="AI4" s="1" t="n">
         <v>897</v>
       </c>
-      <c r="AJ3" s="1" t="n">
+      <c r="AJ4" s="1" t="n">
         <v>7635.41</v>
       </c>
-      <c r="AK3" s="1" t="n">
+      <c r="AK4" s="1" t="n">
         <v>12553</v>
       </c>
-      <c r="AL3" s="1" t="n">
+      <c r="AL4" s="1" t="n">
         <v>7711.16999999997</v>
       </c>
-      <c r="AM3" s="1" t="n">
+      <c r="AM4" s="1" t="n">
         <v>613</v>
       </c>
-      <c r="AN3" s="1" t="n">
+      <c r="AN4" s="1" t="n">
         <v>7700.59</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2904</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>7692.11</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1060</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>7605.71000000002</v>
+      </c>
+      <c r="E5" s="1" t="n">
         <v>4915</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="F5" s="1" t="n">
         <v>7700.61</v>
       </c>
-      <c r="C4" s="1" t="n">
-        <v>1060</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>7605.71000000002</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <v>2904</v>
-      </c>
-      <c r="F4" s="1" t="n">
-        <v>7692.11</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="G5" s="1" t="n">
         <v>3027</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>847</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>7688.35</v>
       </c>
-      <c r="K4" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>1106</v>
       </c>
-      <c r="L4" s="1" t="n">
+      <c r="L5" s="1" t="n">
         <v>7697.63</v>
       </c>
-      <c r="M4" s="1" t="n">
+      <c r="M5" s="1" t="n">
         <v>8627</v>
       </c>
-      <c r="N4" s="1" t="n">
+      <c r="N5" s="1" t="n">
         <v>7702.32999999998</v>
       </c>
-      <c r="O4" s="1" t="n">
+      <c r="O5" s="1" t="n">
         <v>9697</v>
       </c>
-      <c r="P4" s="1" t="n">
+      <c r="P5" s="1" t="n">
         <v>7712.78999999998</v>
       </c>
-      <c r="Q4" s="1" t="n">
+      <c r="Q5" s="1" t="n">
         <v>2439</v>
       </c>
-      <c r="R4" s="1" t="n">
+      <c r="R5" s="1" t="n">
         <v>7695.51999999999</v>
       </c>
-      <c r="U4" s="1" t="n">
+      <c r="S5" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>7731.5</v>
+      </c>
+      <c r="U5" s="1" t="n">
         <v>5465</v>
       </c>
-      <c r="V4" s="1" t="n">
+      <c r="V5" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="W4" s="1" t="n">
+      <c r="W5" s="1" t="n">
         <v>1379</v>
       </c>
-      <c r="X4" s="1" t="n">
+      <c r="X5" s="1" t="n">
         <v>7649.86</v>
       </c>
-      <c r="Y4" s="1" t="n">
+      <c r="Y5" s="1" t="n">
         <v>863</v>
       </c>
-      <c r="Z4" s="1" t="n">
+      <c r="Z5" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="AA4" s="1" t="n">
+      <c r="AA5" s="1" t="n">
         <v>3530</v>
       </c>
-      <c r="AB4" s="1" t="n">
+      <c r="AB5" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="AC4" s="1" t="n">
+      <c r="AC5" s="1" t="n">
         <v>1365</v>
       </c>
-      <c r="AD4" s="1" t="n">
+      <c r="AD5" s="1" t="n">
         <v>7696.61999999998</v>
       </c>
-      <c r="AE4" s="1" t="n">
+      <c r="AE5" s="1" t="n">
         <v>897</v>
       </c>
-      <c r="AF4" s="1" t="n">
+      <c r="AF5" s="1" t="n">
         <v>7695.51999999999</v>
       </c>
-      <c r="AG4" s="1" t="n">
+      <c r="AG5" s="1" t="n">
         <v>3860</v>
       </c>
-      <c r="AH4" s="1" t="n">
+      <c r="AH5" s="1" t="n">
         <v>7696.61999999998</v>
       </c>
-      <c r="AI4" s="1" t="n">
+      <c r="AI5" s="1" t="n">
         <v>1589</v>
       </c>
-      <c r="AJ4" s="1" t="n">
+      <c r="AJ5" s="1" t="n">
         <v>7650.41999999999</v>
       </c>
-      <c r="AK4" s="1" t="n">
+      <c r="AK5" s="1" t="n">
         <v>18832</v>
       </c>
-      <c r="AL4" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-      <c r="AM4" s="1" t="n">
+      <c r="AL5" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AM5" s="1" t="n">
         <v>3236</v>
       </c>
-      <c r="AN4" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
+      <c r="AN5" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>3141</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>7696.05000000002</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1226</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>7647.25000000002</v>
+      </c>
+      <c r="E6" s="1" t="n">
         <v>14697</v>
       </c>
-      <c r="B5" s="1" t="n">
+      <c r="F6" s="1" t="n">
         <v>7711.16999999997</v>
       </c>
-      <c r="C5" s="1" t="n">
-        <v>1226</v>
-      </c>
-      <c r="D5" s="1" t="n">
-        <v>7647.25000000002</v>
-      </c>
-      <c r="E5" s="1" t="n">
-        <v>3141</v>
-      </c>
-      <c r="F5" s="1" t="n">
-        <v>7696.05000000002</v>
-      </c>
-      <c r="G5" s="1" t="n">
+      <c r="G6" s="1" t="n">
         <v>4167</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="H6" s="1" t="n">
         <v>7707.58999999998</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="I6" s="1" t="n">
         <v>6392</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="J6" s="1" t="n">
         <v>7711.87999999999</v>
       </c>
-      <c r="K5" s="1" t="n">
+      <c r="K6" s="1" t="n">
         <v>1795</v>
       </c>
-      <c r="L5" s="1" t="n">
+      <c r="L6" s="1" t="n">
         <v>7703.44999999999</v>
       </c>
-      <c r="M5" s="1" t="n">
+      <c r="M6" s="1" t="n">
         <v>28469</v>
       </c>
-      <c r="N5" s="1" t="n">
+      <c r="N6" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
-      <c r="O5" s="1" t="n">
+      <c r="O6" s="1" t="n">
         <v>17947</v>
       </c>
-      <c r="P5" s="1" t="n">
+      <c r="P6" s="1" t="n">
         <v>7713.75000000001</v>
       </c>
-      <c r="Q5" s="1" t="n">
+      <c r="Q6" s="1" t="n">
         <v>12441</v>
       </c>
-      <c r="R5" s="1" t="n">
+      <c r="R6" s="1" t="n">
         <v>7697.63</v>
       </c>
-      <c r="U5" s="1" t="n">
+      <c r="U6" s="1" t="n">
         <v>15679</v>
       </c>
-      <c r="V5" s="1" t="n">
+      <c r="V6" s="1" t="n">
         <v>7713.75000000001</v>
       </c>
-      <c r="W5" s="1" t="n">
+      <c r="W6" s="1" t="n">
         <v>1703</v>
       </c>
-      <c r="X5" s="1" t="n">
+      <c r="X6" s="1" t="n">
         <v>7695.51999999999</v>
       </c>
-      <c r="Y5" s="1" t="n">
+      <c r="Y6" s="1" t="n">
         <v>78391</v>
       </c>
-      <c r="Z5" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-      <c r="AA5" s="1" t="n">
+      <c r="Z6" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AA6" s="1" t="n">
         <v>8745</v>
       </c>
-      <c r="AB5" s="1" t="n">
+      <c r="AB6" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
-      <c r="AC5" s="1" t="n">
+      <c r="AC6" s="1" t="n">
         <v>7508</v>
       </c>
-      <c r="AD5" s="1" t="n">
+      <c r="AD6" s="1" t="n">
         <v>7703.44999999999</v>
       </c>
-      <c r="AE5" s="1" t="n">
+      <c r="AE6" s="1" t="n">
         <v>3236</v>
       </c>
-      <c r="AF5" s="1" t="n">
+      <c r="AF6" s="1" t="n">
         <v>7697.77</v>
       </c>
-      <c r="AG5" s="1" t="n">
+      <c r="AG6" s="1" t="n">
         <v>8789</v>
       </c>
-      <c r="AH5" s="1" t="n">
+      <c r="AH6" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="AI5" s="1" t="n">
+      <c r="AI6" s="1" t="n">
         <v>3832</v>
       </c>
-      <c r="AJ5" s="1" t="n">
+      <c r="AJ6" s="1" t="n">
         <v>7702.61999999998</v>
       </c>
-    </row>
-    <row r="6" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
+      <c r="AK6" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AM6" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>4143</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>7698.54999999999</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1574</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>7678.88000000001</v>
+      </c>
+      <c r="E7" s="1" t="n">
         <v>47533</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="F7" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="C6" s="1" t="n">
-        <v>1574</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>7678.88000000001</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>4143</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>7698.54999999999</v>
-      </c>
-      <c r="G6" s="1" t="n">
+      <c r="G7" s="1" t="n">
         <v>11357</v>
       </c>
-      <c r="H6" s="1" t="n">
+      <c r="H7" s="1" t="n">
         <v>7710.18999999999</v>
       </c>
-      <c r="I6" s="1" t="n">
+      <c r="I7" s="1" t="n">
         <v>60492</v>
       </c>
-      <c r="J6" s="1" t="n">
+      <c r="J7" s="1" t="n">
         <v>7723.19</v>
       </c>
-      <c r="K6" s="1" t="n">
+      <c r="K7" s="1" t="n">
         <v>26554</v>
       </c>
-      <c r="L6" s="1" t="n">
+      <c r="L7" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="M6" s="1" t="n">
+      <c r="M7" s="1" t="n">
         <v>34935</v>
       </c>
-      <c r="N6" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-      <c r="O6" s="1" t="n">
+      <c r="N7" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="O7" s="1" t="n">
         <v>22584</v>
       </c>
-      <c r="P6" s="1" t="n">
+      <c r="P7" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="Q6" s="1" t="n">
+      <c r="Q7" s="1" t="n">
         <v>17351</v>
       </c>
-      <c r="R6" s="1" t="n">
+      <c r="R7" s="1" t="n">
         <v>7709.83</v>
       </c>
-      <c r="U6" s="1" t="n">
+      <c r="U7" s="1" t="n">
         <v>55852</v>
       </c>
-      <c r="V6" s="1" t="n">
+      <c r="V7" s="1" t="n">
         <v>7723.19</v>
       </c>
-      <c r="W6" s="1" t="n">
+      <c r="W7" s="1" t="n">
         <v>2773</v>
       </c>
-      <c r="X6" s="1" t="n">
+      <c r="X7" s="1" t="n">
         <v>7713.75000000001</v>
       </c>
-      <c r="AC6" s="1" t="n">
+      <c r="Y7" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AA7" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>7725.97999999998</v>
+      </c>
+      <c r="AC7" s="1" t="n">
         <v>14936</v>
       </c>
-      <c r="AD6" s="1" t="n">
+      <c r="AD7" s="1" t="n">
         <v>7707.42000000001</v>
       </c>
-      <c r="AE6" s="1" t="n">
+      <c r="AE7" s="1" t="n">
         <v>10764</v>
       </c>
-      <c r="AF6" s="1" t="n">
+      <c r="AF7" s="1" t="n">
         <v>7710.18999999999</v>
       </c>
-      <c r="AG6" s="1" t="n">
+      <c r="AG7" s="1" t="n">
         <v>35812</v>
       </c>
-      <c r="AH6" s="1" t="n">
+      <c r="AH7" s="1" t="n">
         <v>7711.16999999997</v>
       </c>
-      <c r="AI6" s="1" t="n">
+      <c r="AI7" s="1" t="n">
         <v>8434</v>
       </c>
-      <c r="AJ6" s="1" t="n">
+      <c r="AJ7" s="1" t="n">
         <v>7731.5</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="1" t="n">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>9814</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>7701.51000000001</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>3545</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D8" s="1" t="n">
         <v>7688.08999999998</v>
       </c>
-      <c r="E7" s="1" t="n">
-        <v>9814</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>7701.51000000001</v>
-      </c>
-      <c r="G7" s="1" t="n">
+      <c r="E8" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>7731.5</v>
+      </c>
+      <c r="G8" s="1" t="n">
         <v>11994</v>
       </c>
-      <c r="H7" s="1" t="n">
+      <c r="H8" s="1" t="n">
         <v>7712.78999999998</v>
       </c>
-      <c r="I7" s="1" t="n">
+      <c r="I8" s="1" t="n">
         <v>62772</v>
       </c>
-      <c r="J7" s="1" t="n">
+      <c r="J8" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="K7" s="1" t="n">
+      <c r="K8" s="1" t="n">
         <v>27734</v>
       </c>
-      <c r="L7" s="1" t="n">
+      <c r="L8" s="1" t="n">
         <v>7712.78999999998</v>
       </c>
-      <c r="O7" s="1" t="n">
+      <c r="M8" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="O8" s="1" t="n">
         <v>65663</v>
       </c>
-      <c r="P7" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-      <c r="Q7" s="1" t="n">
+      <c r="P8" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="Q8" s="1" t="n">
         <v>25624</v>
       </c>
-      <c r="R7" s="1" t="n">
+      <c r="R8" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
-      <c r="W7" s="1" t="n">
+      <c r="U8" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>7723.19</v>
+      </c>
+      <c r="W8" s="1" t="n">
         <v>80106</v>
       </c>
-      <c r="X7" s="1" t="n">
+      <c r="X8" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
-      <c r="AC7" s="1" t="n">
+      <c r="AC8" s="1" t="n">
         <v>23572</v>
       </c>
-      <c r="AD7" s="1" t="n">
+      <c r="AD8" s="1" t="n">
         <v>7707.58999999998</v>
       </c>
-      <c r="AE7" s="1" t="n">
+      <c r="AE8" s="1" t="n">
         <v>20541</v>
       </c>
-      <c r="AF7" s="1" t="n">
+      <c r="AF8" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="AG7" s="1" t="n">
+      <c r="AG8" s="1" t="n">
         <v>36687</v>
       </c>
-      <c r="AH7" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-      <c r="AI7" s="1" t="n">
+      <c r="AH8" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AI8" s="1" t="n">
         <v>87234</v>
       </c>
-      <c r="AJ7" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="1" t="n">
+      <c r="AJ8" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>13039</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>7709.83</v>
+      </c>
+      <c r="C9" s="1" t="n">
         <v>6452</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D9" s="1" t="n">
         <v>7693.97999999999</v>
       </c>
-      <c r="E8" s="1" t="n">
-        <v>13039</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>7709.83</v>
-      </c>
-      <c r="G8" s="1" t="n">
+      <c r="G9" s="1" t="n">
         <v>56782</v>
       </c>
-      <c r="H8" s="1" t="n">
+      <c r="H9" s="1" t="n">
         <v>7713.75000000001</v>
       </c>
-      <c r="K8" s="1" t="n">
+      <c r="I9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>7731.5</v>
+      </c>
+      <c r="K9" s="1" t="n">
         <v>69075</v>
       </c>
-      <c r="L8" s="1" t="n">
+      <c r="L9" s="1" t="n">
         <v>7713.75000000001</v>
       </c>
-      <c r="Q8" s="1" t="n">
+      <c r="O9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="Q9" s="1" t="n">
         <v>66298</v>
       </c>
-      <c r="R8" s="1" t="n">
+      <c r="R9" s="1" t="n">
         <v>7731.5</v>
       </c>
-      <c r="AC8" s="1" t="n">
+      <c r="W9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>7725.97999999998</v>
+      </c>
+      <c r="AC9" s="1" t="n">
         <v>30953</v>
       </c>
-      <c r="AD8" s="1" t="n">
+      <c r="AD9" s="1" t="n">
         <v>7712.78999999998</v>
       </c>
-    </row>
-    <row r="9" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="1" t="n">
+      <c r="AE9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>7731.5</v>
+      </c>
+      <c r="AG9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="AI9" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>23087</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>7721.46999999997</v>
+      </c>
+      <c r="C10" s="1" t="n">
         <v>14518</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D10" s="1" t="n">
         <v>7698.25</v>
       </c>
-      <c r="E9" s="1" t="n">
-        <v>23087</v>
-      </c>
-      <c r="F9" s="1" t="n">
+      <c r="G10" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>7713.75000000001</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>7713.75000000001</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>7731.5</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>35089</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>7725.97999999998</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>54657</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>7723.19</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>16269</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>7710.18999999999</v>
+      </c>
+      <c r="AC11" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="AD11" s="1" t="n">
+        <v>7725.97999999998</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>56568</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>36651</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>7712.78999999998</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>7741.73</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>53125</v>
+      </c>
+      <c r="D13" s="1" t="n">
         <v>7721.46999999997</v>
       </c>
-      <c r="AC9" s="1" t="n">
-        <v>35089</v>
-      </c>
-      <c r="AD9" s="1" t="n">
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="n">
+        <v>65366</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="1" t="n">
-        <v>16269</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>7710.18999999999</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>54657</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>7723.19</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="1" t="n">
-        <v>36651</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>7712.78999999998</v>
-      </c>
-      <c r="E11" s="1" t="n">
-        <v>56568</v>
-      </c>
-      <c r="F11" s="1" t="n">
-        <v>7741.73</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="1" t="n">
-        <v>53125</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>7721.46999999997</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="1" t="n">
-        <v>65366</v>
-      </c>
-      <c r="D13" s="1" t="n">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="0" t="n">
+        <v>87300</v>
+      </c>
+      <c r="D15" s="1" t="n">
         <v>7725.97999999998</v>
       </c>
     </row>
